--- a/Examples/teste_example_5/data_exa5.xlsx
+++ b/Examples/teste_example_5/data_exa5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\PycharmProjects\MT_PEU\Examples\teste_example_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E117E-63EC-493D-B247-6EF10BD23381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD49C0-BEF2-45A7-A784-DF9732D79464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent variable" sheetId="2" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D95B7-B7C2-4B1D-A0AA-907023D16FAD}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Examples/teste_example_5/data_exa5.xlsx
+++ b/Examples/teste_example_5/data_exa5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\PycharmProjects\MT_PEU\Examples\teste_example_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD49C0-BEF2-45A7-A784-DF9732D79464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E117E-63EC-493D-B247-6EF10BD23381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent variable" sheetId="2" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D95B7-B7C2-4B1D-A0AA-907023D16FAD}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
